--- a/siteGeneration/glossary.xlsx
+++ b/siteGeneration/glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klr324/Documents/Github/climToolsReference/siteGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AAF948-69C6-FE4C-918D-A1FCD8D011C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48B6DE-CB63-6C49-9BC8-823410243BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="620" windowWidth="26660" windowHeight="14400" xr2:uid="{5E01B77E-7114-AA48-84BB-2B0608713F1C}"/>
+    <workbookView xWindow="480" yWindow="1180" windowWidth="26660" windowHeight="14400" xr2:uid="{5E01B77E-7114-AA48-84BB-2B0608713F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
-  <si>
-    <t>Tool Function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>keyword</t>
   </si>
@@ -73,9 +70,6 @@
     <t>Toolkit/Tool Collection</t>
   </si>
   <si>
-    <t>Topic Filter</t>
-  </si>
-  <si>
     <t>Developed Environments</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Eco Services Valuation</t>
   </si>
   <si>
-    <t>Submerged Aquatic Vegitation</t>
-  </si>
-  <si>
     <t>Soils</t>
   </si>
   <si>
@@ -181,60 +172,6 @@
     <t>Only Tools Related To Coasts</t>
   </si>
   <si>
-    <t>Subtopic Filter</t>
-  </si>
-  <si>
-    <t>Geographic Scope</t>
-  </si>
-  <si>
-    <t>System (e.g., bus, roadways, subways, etc.) for moving passengers or goods from one place to another.</t>
-  </si>
-  <si>
-    <t>Structures built for permanent use (e.g., a dwelling) or that is built by putting parts together and that usually stands on its own (e.g., a house, tower, bridge, etc.).</t>
-  </si>
-  <si>
-    <t>Science and practice of planting, managing, and caring for forests.</t>
-  </si>
-  <si>
-    <t>Practice of farming, including the cultivation of the soil for growing crops and the breeding and rearing of animals to provide food, cotton, and other products.</t>
-  </si>
-  <si>
-    <t>Science dealing with the material welfare of humankind or the production, distribution, and consumption of goods and services.</t>
-  </si>
-  <si>
-    <t>Process wherein sediments are broken down and worn away by waves, currents, wind, and/or precipitation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem Restoration
-Form of restoration applying to large-scale projects that seek to restore an ecosystem using multiple methods (e.g., prescribed fire, invasive control, and hydrologic restoration to restore a pine savanna).Ecological Restoration
-Manipulation of the physical, chemical, or biological characteristics of a site with the goal of returning previous functions to a degraded ecosystem, habitat, or natural feature.
-</t>
-  </si>
-  <si>
-    <t>Quantifying the benefits that humans receive from natural systems; often utilizes economic value.</t>
-  </si>
-  <si>
-    <t>Measure of pollutants (or lack thereof) present in air; used to determine health and safety of atmosphere.</t>
-  </si>
-  <si>
-    <t>Chemical, physical, and biological condition of water, with respect to a particular purpose (e.g. drinking or swimming).</t>
-  </si>
-  <si>
-    <t>Abnormal rise of water generated by a storm, over and above the predicted astronomical tide. In coastal areas, often the greatest threat to life and property from a hurricane or other coastal storm.</t>
-  </si>
-  <si>
-    <t>Flooding of saltwater (i.e., ocean water) onto normally dry land, commonly expressed as the height of the water above ground level. Can be caused by high tide, sea level rise, storm surge, or other events.</t>
-  </si>
-  <si>
-    <t>Human physical, social, and mental wellbeing. Can be adversely affected by climate hazards (e.g., heat waves, droughts, etc.).</t>
-  </si>
-  <si>
-    <t>Period of abnormally dry weather marked by little or no rain that lasts long enough to cause water shortage for people and natural systems.</t>
-  </si>
-  <si>
-    <t>Release of carbon (e.g., carbon dioxide or monoxide) gas into the atmosphere through direct (e.g., driving cars, shipping industry, airplanes, etc.) or indirect (e.g., food, textiles, etc.) means.</t>
-  </si>
-  <si>
     <t>Registration required</t>
   </si>
   <si>
@@ -325,27 +262,6 @@
     <t>Subdaily</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Skill level</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>med</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>varies</t>
-  </si>
-  <si>
     <t>(tag) The data or tool is updated on a yearly basis.</t>
   </si>
   <si>
@@ -448,33 +364,6 @@
     <t>(topic filter) Tools that cover topics that impact a community collectively via health, air quality, or social vulnerability.</t>
   </si>
   <si>
-    <t>(geographic scope)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Preparing a natural or urban area for the effects of climate change and extreme weather with the intention of reducing risk or exposure. Includes planning for current and expected future climates.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Involving public participation in data collection or other components of the scientific process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Tools or guidance to support community engagement in climate impact assessment and/or planning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Reducing heat-trapping gasses in the atmosphere. May be accomplished by reducing sources (e.g., burning fossil fuels) or enhancing sinks (e.g., oceans, forests, soils).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Identifying community assets (e.g., critical infrastructure and natural resources) and people at risk to extreme weather and climate-related hazards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Formal ways of thinking about the means by which decision are made, as opposed to computational or modeling methods used to support decision making' (RAND).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Visualizing or comparing historical and/or present-day conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (tool function) Visualizing or comparing possible future scenarios projected by climate models.</t>
-  </si>
-  <si>
     <t>(topic filter) An environment that was developed by humans for economic or social benefits.</t>
   </si>
   <si>
@@ -490,29 +379,143 @@
     <t>(topic filter) Weather is day-to-day changes in atmospheric conditions. Climate is weather conditions of a region averaged over a long period of time.</t>
   </si>
   <si>
-    <t>(developed environments) Process of designing potential futures for a community, city, etc. Land use is a type of planning that is implemented through zoning, which can change management of land and lead to impactful changes.</t>
-  </si>
-  <si>
-    <t>(ecosystems)</t>
-  </si>
-  <si>
-    <t>(society) dentifying risks due to climate hazards that affect a community's social interactions, institutions, and/or values; closely related to a society's ability to practice risk management.</t>
-  </si>
-  <si>
-    <t>(water / floooding)</t>
-  </si>
-  <si>
     <t>(weather and climate) Increase in water level caused in part by melting land-based ice and expanding water. Exacerbates existing coastal hazards such as flooding, erosion, inundation, and extreme events. Often abbreviated to SLR.</t>
   </si>
   <si>
     <t>(skill level) Applies to a tool collection where multiple tools vary in the level of effort required on the user.</t>
+  </si>
+  <si>
+    <t>(developed environments) Process of designing or regulating how an area of land is used. Often this is done to promote certain economic, social, or environmental benefits.</t>
+  </si>
+  <si>
+    <t>(developed environments) System (e.g., bus, roadways, subways, etc.) for moving passengers or goods from one place to another.</t>
+  </si>
+  <si>
+    <t>(developed environments) Facilities, built systems, and structures built for permanent use. Examples include houses, buildings, roads, sewer systems, power lines, communication networks, among others.</t>
+  </si>
+  <si>
+    <t>(developed environments) The breeding, rearing, and harvesting of fish, shellfish, and other aquatic animals and plants for food or other products.</t>
+  </si>
+  <si>
+    <t>(developed environments) Farming; the practice of cultivating the soil, growing crops, and raising animals for food or other products.</t>
+  </si>
+  <si>
+    <t>(developed environments) Science and practice of planting, managing, and caring for forests.</t>
+  </si>
+  <si>
+    <t>(weather and climate) Tools that include temperature information.</t>
+  </si>
+  <si>
+    <t>(weather and climate) Tools that include information about hurricanes and other types of storms.</t>
+  </si>
+  <si>
+    <t>(weather and climate) Rain, snow, sleet, and hail are types of precipitation.</t>
+  </si>
+  <si>
+    <t>(developed environments) Tools that calculate and evaluate potential costs and benefits.</t>
+  </si>
+  <si>
+    <t>(ecosystems) Tools that include information about wetlands.</t>
+  </si>
+  <si>
+    <t>(ecosystems) Quantifying the benefits that humans receive from natural systems; often utilizes economic value.</t>
+  </si>
+  <si>
+    <t>(ecosystems) Tools that include information about soil.</t>
+  </si>
+  <si>
+    <t>(ecosystems) Tools that include information about shorelines and erosion. Erosion is the breakdown and transportation of soil, rock, and other dissolved material by wind, water, chemical interactions, and other natural processes.</t>
+  </si>
+  <si>
+    <t>(ecosystems) The act or restoring or converting something to a previous condition.</t>
+  </si>
+  <si>
+    <t>Submerged Aquatic Vegetation</t>
+  </si>
+  <si>
+    <t>(ecosystems) A plant that grows completely under the water.</t>
+  </si>
+  <si>
+    <t>(society) Tools that assess the resilience of a community impacted by climate or other natural hazards.</t>
+  </si>
+  <si>
+    <t>(society) Tools that assess the physical, social, and mental wellbeing of a community.</t>
+  </si>
+  <si>
+    <t>(society) Measure of pollutants (or lack thereof) present in air; used to determine health and safety of atmosphere.</t>
+  </si>
+  <si>
+    <t>(water / flooding) Tools containing information about water levels of a strea, river, lake, or ocean. Also known as gauge height or stage.</t>
+  </si>
+  <si>
+    <t>(water / flooding) Chemical, physical, and biological condition of water, with respect to a particular purpose (e.g. drinking or swimming).</t>
+  </si>
+  <si>
+    <t>(water / flooding) The amount of water flowing through a stream or river.</t>
+  </si>
+  <si>
+    <t>(water / flooding) Tools with information about high tide flooding or flooding that occurs repeatedly in an area from precipitaion, high tides, or storm surge.</t>
+  </si>
+  <si>
+    <t>(water / flooding) Flooding that occurs hundreds of miles away from the coast.</t>
+  </si>
+  <si>
+    <t>(water / flooding) A coastal flood caused by rising water level from a storm.</t>
+  </si>
+  <si>
+    <t>(water / flooding) The movement or flooding of saltwater onto normally dry land or into freshwater aquifers, rivers, estuaries, wetlands, and lakes.</t>
+  </si>
+  <si>
+    <t>(weather and climate) Period of abnormally dry weather marked by little or no rain that lasts long enough to cause water shortage for people and natural systems.</t>
+  </si>
+  <si>
+    <t>(weather and climate) The release of carbon (e.g., carbon dioxide or monoxide) gas into the atmosphere through direct (e.g., driving cars, shipping industry, airplanes, etc.) or indirect (e.g., food, textiles, etc.) means.</t>
+  </si>
+  <si>
+    <t>(tool function) Preparing a natural or urban area for the effects of climate change and extreme weather with the intention of reducing risk or exposure. Includes planning for current and expected future climates.</t>
+  </si>
+  <si>
+    <t>(tool function) Involving public participation in data collection or other components of the scientific process.</t>
+  </si>
+  <si>
+    <t>(tool function) Reducing heat-trapping gasses in the atmosphere. May be accomplished by reducing sources (e.g., burning fossil fuels) or enhancing sinks (e.g., oceans, forests, soils).</t>
+  </si>
+  <si>
+    <t>(tool function) Tools or guidance to support community engagement in climate impact assessment and/or planning.</t>
+  </si>
+  <si>
+    <t>(tool function) Identifying community assets (e.g., critical infrastructure and natural resources) and people at risk to extreme weather and climate-related hazards.</t>
+  </si>
+  <si>
+    <t>(tool function) Formal ways of thinking about the means by which decision are made, as opposed to computational or modeling methods used to support decision making' (RAND).</t>
+  </si>
+  <si>
+    <t>(tool function) Visualizing or comparing historical and/or present-day conditions.</t>
+  </si>
+  <si>
+    <t>(tool function) Visualizing or comparing possible future scenarios projected by climate models.</t>
+  </si>
+  <si>
+    <t>(geographic scope) Coastal counties are counties adjacent to the open ocean, major estuaries, and the Great Lakes where they are exposed to a range of coastal hazards and host economic production associated with coastal and ocean resources. Coastal counties can also be counties where land use and water quality changes directly impact coastal ecosystems.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Varies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,8 +535,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,49 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9C5FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,54 +570,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,725 +911,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DFD664-A791-3E44-AAE8-83790EB19B95}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="3" customWidth="1"/>
     <col min="3" max="16" width="30.83203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="4"/>
+    <col min="17" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="14"/>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>131</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="B31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>131</v>
+      <c r="B48" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>130</v>
+      <c r="A49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>129</v>
+      <c r="A50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>125</v>
+      <c r="A51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>126</v>
+      <c r="A52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>127</v>
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>123</v>
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>124</v>
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>119</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/siteGeneration/glossary.xlsx
+++ b/siteGeneration/glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klr324/Documents/Github/climToolsReference/siteGeneration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48B6DE-CB63-6C49-9BC8-823410243BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE0F82-2550-8142-862C-6966D4215072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1180" windowWidth="26660" windowHeight="14400" xr2:uid="{5E01B77E-7114-AA48-84BB-2B0608713F1C}"/>
+    <workbookView xWindow="2140" yWindow="2480" windowWidth="26660" windowHeight="14400" xr2:uid="{5E01B77E-7114-AA48-84BB-2B0608713F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>keyword</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Carbon Emissions</t>
   </si>
   <si>
-    <t>Only Tools Related To Coasts</t>
-  </si>
-  <si>
     <t>Registration required</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>(tag) The tool provides estimated costs.</t>
   </si>
   <si>
-    <t>(tag) The tool provides a one or more solutions.</t>
-  </si>
-  <si>
     <t>(tag) The tool allows the user to compare multiple scenarios or locations.</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>(tag) The tool contains information as a website. It may or may not be interactive.</t>
   </si>
   <si>
-    <t>(tag) The information in the tool is specific to one or more location.</t>
-  </si>
-  <si>
     <t>(tag) The information in the tool is at the watershed level.</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
     <t>(tool function) Visualizing or comparing possible future scenarios projected by climate models.</t>
   </si>
   <si>
-    <t>(geographic scope) Coastal counties are counties adjacent to the open ocean, major estuaries, and the Great Lakes where they are exposed to a range of coastal hazards and host economic production associated with coastal and ocean resources. Coastal counties can also be counties where land use and water quality changes directly impact coastal ecosystems.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -509,6 +497,36 @@
   </si>
   <si>
     <t>Varies</t>
+  </si>
+  <si>
+    <t>Cultural Resources</t>
+  </si>
+  <si>
+    <t>(coastal / inland) Tools that consist of noncoastal or inland topics.</t>
+  </si>
+  <si>
+    <t>(coastal / inland) Tools that consist of coastal topics.</t>
+  </si>
+  <si>
+    <t>Coastal</t>
+  </si>
+  <si>
+    <t>Noncoastal/ Inland</t>
+  </si>
+  <si>
+    <t>(tag) The tool provides one or more solutions.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>(tag) The tool is an application.</t>
+  </si>
+  <si>
+    <t>(tag) The information in the tool is specific to one or more locations.</t>
+  </si>
+  <si>
+    <t>(society) Any prehistoric or historic remains or indicators of past human activities, including artifacts, sites, structures, landscapes, and objects of importance to a culture or community for scientific, traditional, religious, or other reasons. Culture resources in this tool also encompass tools that illustrate recent/current human opinions, beliefs, or behaviors.</t>
   </si>
 </sst>
 </file>
@@ -911,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DFD664-A791-3E44-AAE8-83790EB19B95}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -956,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -964,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -972,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -980,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -988,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -996,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1004,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1012,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1020,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1028,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1036,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1044,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1052,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1060,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1082,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1104,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1112,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1120,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1128,7 +1146,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1150,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1172,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1180,7 +1198,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1202,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1224,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1243,10 +1261,10 @@
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1254,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1262,197 +1280,183 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    <row r="34" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="36" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="44" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1469,49 +1473,63 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>153</v>
-      </c>
+    <row r="45" spans="1:16" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
+      <c r="A46" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>46</v>
+      <c r="A47" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>99</v>
@@ -1519,47 +1537,47 @@
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>94</v>
@@ -1567,47 +1585,47 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>88</v>
@@ -1615,7 +1633,7 @@
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>87</v>
@@ -1623,130 +1641,154 @@
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>72</v>
+      <c r="A73" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>154</v>
+      <c r="A76" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>156</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>157</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
